--- a/biology/Botanique/Magnolia_denudata/Magnolia_denudata.xlsx
+++ b/biology/Botanique/Magnolia_denudata/Magnolia_denudata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia denudata appelé Magnolia Yulan, est une espèce d'arbustes ou de petits arbres de la famille des Magnoliaceae. Il est originaire du centre et de l'est de la Chine, où il est cultivé depuis la Dynastie Tang. C'est l'un des parents de l'hybride Magnolia ×soulangeana, à l’origine de beaucoup de magnolias connus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de 2-3 mètres à 10 ans, pouvant atteindre 8 à 12 mètres. Les feuilles caduques sont ovales à obovales. Les fleurs blanches, imposantes et parfumées, apparaissent avant les feuilles.
 </t>
